--- a/data/serial_numbers.xlsx
+++ b/data/serial_numbers.xlsx
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -10670,8 +10670,11 @@
       <c r="M17" t="s">
         <v>2953</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -10711,8 +10714,11 @@
       <c r="M18" t="s">
         <v>2954</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -10752,8 +10758,11 @@
       <c r="M19" t="s">
         <v>2955</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -10793,8 +10802,11 @@
       <c r="M20" t="s">
         <v>2956</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -10834,8 +10846,11 @@
       <c r="M21" t="s">
         <v>2957</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -10876,7 +10891,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -10917,7 +10932,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -10958,7 +10973,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -10999,7 +11014,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -11040,7 +11055,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -11081,7 +11096,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -11122,7 +11137,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -11163,7 +11178,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -11204,7 +11219,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -11245,7 +11260,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>44</v>
       </c>

--- a/data/serial_numbers.xlsx
+++ b/data/serial_numbers.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eymericboyer/Documents/Universities/EPFL/Master/2024_Autumn_Semester/Data Science for business/Homeworks/Group Project/Phase1/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{459445C9-C102-2348-A621-7F00C6EB1083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4920" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1234,7 +1240,7 @@
     <t>55862350285</t>
   </si>
   <si>
-    <t>55862350493</t>
+    <t>55862350498</t>
   </si>
   <si>
     <t>55862310524</t>
@@ -1399,7 +1405,7 @@
     <t>55863310269</t>
   </si>
   <si>
-    <t>5586335A526</t>
+    <t>55863350526</t>
   </si>
   <si>
     <t>55863330628</t>
@@ -1513,7 +1519,7 @@
     <t>5586414020X</t>
   </si>
   <si>
-    <t>55864110406</t>
+    <t>558641104C6</t>
   </si>
   <si>
     <t>55864130652</t>
@@ -9568,8 +9574,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9632,13 +9638,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9676,7 +9690,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -9710,6 +9724,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -9744,9 +9759,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9919,14 +9935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9970,7 +9986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -10014,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -10058,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -10102,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -10146,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -10190,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -10234,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10278,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -10322,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -10366,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -10410,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -10454,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -10498,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -10542,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10586,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -10630,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -10674,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -10718,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -10762,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -10806,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -10847,10 +10863,10 @@
         <v>2957</v>
       </c>
       <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -10890,8 +10906,11 @@
       <c r="M22" t="s">
         <v>2958</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -10931,8 +10950,11 @@
       <c r="M23" t="s">
         <v>2959</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -10972,8 +10994,11 @@
       <c r="M24" t="s">
         <v>2960</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -11013,8 +11038,11 @@
       <c r="M25" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -11054,8 +11082,11 @@
       <c r="M26" t="s">
         <v>2962</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -11095,8 +11126,11 @@
       <c r="M27" t="s">
         <v>2963</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -11136,8 +11170,11 @@
       <c r="M28" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -11177,8 +11214,11 @@
       <c r="M29" t="s">
         <v>2965</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -11218,8 +11258,11 @@
       <c r="M30" t="s">
         <v>2966</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -11259,8 +11302,11 @@
       <c r="M31" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -11300,8 +11346,11 @@
       <c r="M32" t="s">
         <v>2968</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -11341,8 +11390,11 @@
       <c r="M33" t="s">
         <v>2969</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -11382,8 +11434,11 @@
       <c r="M34" t="s">
         <v>2970</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -11423,8 +11478,11 @@
       <c r="M35" t="s">
         <v>2971</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -11464,8 +11522,11 @@
       <c r="M36" t="s">
         <v>2972</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -11505,8 +11566,11 @@
       <c r="M37" t="s">
         <v>2973</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -11546,8 +11610,11 @@
       <c r="M38" t="s">
         <v>2974</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -11587,8 +11654,11 @@
       <c r="M39" t="s">
         <v>2975</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -11628,8 +11698,11 @@
       <c r="M40" t="s">
         <v>2976</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -11669,8 +11742,11 @@
       <c r="M41" t="s">
         <v>2977</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -11710,8 +11786,11 @@
       <c r="M42" t="s">
         <v>2978</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -11751,8 +11830,11 @@
       <c r="M43" t="s">
         <v>2979</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -11792,8 +11874,11 @@
       <c r="M44" t="s">
         <v>2980</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -11833,8 +11918,11 @@
       <c r="M45" t="s">
         <v>2981</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -11874,8 +11962,11 @@
       <c r="M46" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -11915,8 +12006,11 @@
       <c r="M47" t="s">
         <v>2966</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -11956,8 +12050,11 @@
       <c r="M48" t="s">
         <v>2983</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -11997,8 +12094,11 @@
       <c r="M49" t="s">
         <v>2984</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -12038,8 +12138,11 @@
       <c r="M50" t="s">
         <v>2985</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -12079,8 +12182,11 @@
       <c r="M51" t="s">
         <v>2986</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -12120,8 +12226,11 @@
       <c r="M52" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -12161,8 +12270,11 @@
       <c r="M53" t="s">
         <v>2988</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -12202,8 +12314,11 @@
       <c r="M54" t="s">
         <v>2989</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -12243,8 +12358,11 @@
       <c r="M55" t="s">
         <v>2990</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -12284,8 +12402,11 @@
       <c r="M56" t="s">
         <v>2991</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -12325,8 +12446,11 @@
       <c r="M57" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -12366,8 +12490,11 @@
       <c r="M58" t="s">
         <v>2993</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -12407,8 +12534,11 @@
       <c r="M59" t="s">
         <v>2994</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -12448,8 +12578,11 @@
       <c r="M60" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -12489,8 +12622,11 @@
       <c r="M61" t="s">
         <v>2996</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -12530,8 +12666,11 @@
       <c r="M62" t="s">
         <v>2997</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -12571,8 +12710,11 @@
       <c r="M63" t="s">
         <v>2998</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -12612,8 +12754,11 @@
       <c r="M64" t="s">
         <v>2999</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -12653,8 +12798,11 @@
       <c r="M65" t="s">
         <v>3000</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -12694,8 +12842,11 @@
       <c r="M66" t="s">
         <v>3001</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -12735,8 +12886,11 @@
       <c r="M67" t="s">
         <v>3002</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -12776,8 +12930,11 @@
       <c r="M68" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -12817,8 +12974,11 @@
       <c r="M69" t="s">
         <v>3004</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -12858,8 +13018,11 @@
       <c r="M70" t="s">
         <v>3005</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -12899,8 +13062,11 @@
       <c r="M71" t="s">
         <v>3006</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -12940,8 +13106,11 @@
       <c r="M72" t="s">
         <v>3007</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -12981,8 +13150,11 @@
       <c r="M73" t="s">
         <v>3008</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -13022,8 +13194,11 @@
       <c r="M74" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -13063,8 +13238,11 @@
       <c r="M75" t="s">
         <v>3010</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -13104,8 +13282,11 @@
       <c r="M76" t="s">
         <v>3011</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -13145,8 +13326,11 @@
       <c r="M77" t="s">
         <v>3012</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -13186,8 +13370,11 @@
       <c r="M78" t="s">
         <v>3013</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -13227,8 +13414,11 @@
       <c r="M79" t="s">
         <v>3014</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -13268,8 +13458,11 @@
       <c r="M80" t="s">
         <v>3015</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -13309,8 +13502,11 @@
       <c r="M81" t="s">
         <v>3016</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -13350,8 +13546,11 @@
       <c r="M82" t="s">
         <v>3017</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -13391,8 +13590,11 @@
       <c r="M83" t="s">
         <v>3018</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -13432,8 +13634,11 @@
       <c r="M84" t="s">
         <v>3019</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -13473,8 +13678,11 @@
       <c r="M85" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -13514,8 +13722,11 @@
       <c r="M86" t="s">
         <v>3021</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -13555,8 +13766,11 @@
       <c r="M87" t="s">
         <v>3022</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -13596,8 +13810,11 @@
       <c r="M88" t="s">
         <v>3023</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -13637,8 +13854,11 @@
       <c r="M89" t="s">
         <v>3024</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -13678,8 +13898,11 @@
       <c r="M90" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -13719,8 +13942,11 @@
       <c r="M91" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -13760,8 +13986,11 @@
       <c r="M92" t="s">
         <v>3027</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -13801,8 +14030,11 @@
       <c r="M93" t="s">
         <v>3028</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -13842,8 +14074,11 @@
       <c r="M94" t="s">
         <v>3029</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -13883,8 +14118,11 @@
       <c r="M95" t="s">
         <v>3030</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -13924,8 +14162,11 @@
       <c r="M96" t="s">
         <v>3031</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -13965,8 +14206,11 @@
       <c r="M97" t="s">
         <v>3032</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -14006,8 +14250,11 @@
       <c r="M98" t="s">
         <v>3033</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -14047,8 +14294,11 @@
       <c r="M99" t="s">
         <v>3034</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -14088,8 +14338,11 @@
       <c r="M100" t="s">
         <v>3035</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -14129,8 +14382,11 @@
       <c r="M101" t="s">
         <v>3036</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -14170,8 +14426,11 @@
       <c r="M102" t="s">
         <v>3037</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -14211,8 +14470,11 @@
       <c r="M103" t="s">
         <v>3038</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -14252,8 +14514,11 @@
       <c r="M104" t="s">
         <v>3039</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -14293,8 +14558,11 @@
       <c r="M105" t="s">
         <v>3040</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -14334,8 +14602,11 @@
       <c r="M106" t="s">
         <v>3041</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -14375,8 +14646,11 @@
       <c r="M107" t="s">
         <v>3042</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -14416,8 +14690,11 @@
       <c r="M108" t="s">
         <v>3043</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -14457,8 +14734,11 @@
       <c r="M109" t="s">
         <v>3044</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -14498,8 +14778,11 @@
       <c r="M110" t="s">
         <v>3045</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -14539,8 +14822,11 @@
       <c r="M111" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -14580,8 +14866,11 @@
       <c r="M112" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -14621,8 +14910,11 @@
       <c r="M113" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -14662,8 +14954,11 @@
       <c r="M114" t="s">
         <v>3049</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -14703,8 +14998,11 @@
       <c r="M115" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -14744,8 +15042,11 @@
       <c r="M116" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -14785,8 +15086,11 @@
       <c r="M117" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -14826,8 +15130,11 @@
       <c r="M118" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -14867,8 +15174,11 @@
       <c r="M119" t="s">
         <v>3054</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -14908,8 +15218,11 @@
       <c r="M120" t="s">
         <v>3055</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -14949,8 +15262,11 @@
       <c r="M121" t="s">
         <v>3056</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -14990,8 +15306,11 @@
       <c r="M122" t="s">
         <v>3057</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -15031,8 +15350,11 @@
       <c r="M123" t="s">
         <v>3058</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -15072,8 +15394,11 @@
       <c r="M124" t="s">
         <v>3059</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -15113,8 +15438,11 @@
       <c r="M125" t="s">
         <v>3060</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -15154,8 +15482,11 @@
       <c r="M126" t="s">
         <v>3061</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -15195,8 +15526,11 @@
       <c r="M127" t="s">
         <v>3062</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -15236,8 +15570,11 @@
       <c r="M128" t="s">
         <v>3063</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -15277,8 +15614,11 @@
       <c r="M129" t="s">
         <v>3064</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -15318,8 +15658,11 @@
       <c r="M130" t="s">
         <v>3065</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -15359,8 +15702,11 @@
       <c r="M131" t="s">
         <v>3066</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -15400,8 +15746,11 @@
       <c r="M132" t="s">
         <v>3067</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -15441,8 +15790,11 @@
       <c r="M133" t="s">
         <v>3068</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -15482,8 +15834,11 @@
       <c r="M134" t="s">
         <v>3069</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -15523,8 +15878,11 @@
       <c r="M135" t="s">
         <v>3070</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -15564,8 +15922,11 @@
       <c r="M136" t="s">
         <v>3071</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -15605,8 +15966,11 @@
       <c r="M137" t="s">
         <v>3072</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -15646,8 +16010,11 @@
       <c r="M138" t="s">
         <v>3073</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -15687,8 +16054,11 @@
       <c r="M139" t="s">
         <v>3074</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -15728,8 +16098,11 @@
       <c r="M140" t="s">
         <v>3075</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -15769,8 +16142,11 @@
       <c r="M141" t="s">
         <v>3076</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -15810,8 +16186,11 @@
       <c r="M142" t="s">
         <v>3077</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -15851,8 +16230,11 @@
       <c r="M143" t="s">
         <v>3078</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -15892,8 +16274,11 @@
       <c r="M144" t="s">
         <v>3079</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -15933,8 +16318,11 @@
       <c r="M145" t="s">
         <v>3080</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -15974,8 +16362,11 @@
       <c r="M146" t="s">
         <v>3081</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -16015,8 +16406,11 @@
       <c r="M147" t="s">
         <v>3082</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -16056,8 +16450,11 @@
       <c r="M148" t="s">
         <v>3083</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -16097,8 +16494,11 @@
       <c r="M149" t="s">
         <v>3084</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -16138,8 +16538,11 @@
       <c r="M150" t="s">
         <v>3085</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -16179,8 +16582,11 @@
       <c r="M151" t="s">
         <v>3086</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -16220,8 +16626,11 @@
       <c r="M152" t="s">
         <v>3087</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -16261,8 +16670,11 @@
       <c r="M153" t="s">
         <v>3088</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -16302,8 +16714,11 @@
       <c r="M154" t="s">
         <v>3089</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -16343,8 +16758,11 @@
       <c r="M155" t="s">
         <v>3090</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -16384,8 +16802,11 @@
       <c r="M156" t="s">
         <v>3091</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -16425,8 +16846,11 @@
       <c r="M157" t="s">
         <v>3092</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -16466,8 +16890,11 @@
       <c r="M158" t="s">
         <v>3093</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -16507,8 +16934,11 @@
       <c r="M159" t="s">
         <v>3094</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -16548,8 +16978,11 @@
       <c r="M160" t="s">
         <v>3095</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -16589,8 +17022,11 @@
       <c r="M161" t="s">
         <v>3096</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -16630,8 +17066,11 @@
       <c r="M162" t="s">
         <v>3097</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -16671,8 +17110,11 @@
       <c r="M163" t="s">
         <v>3098</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -16712,8 +17154,11 @@
       <c r="M164" t="s">
         <v>3099</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -16753,8 +17198,11 @@
       <c r="M165" t="s">
         <v>3100</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -16794,8 +17242,11 @@
       <c r="M166" t="s">
         <v>3101</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -16835,8 +17286,11 @@
       <c r="M167" t="s">
         <v>3102</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -16876,8 +17330,11 @@
       <c r="M168" t="s">
         <v>3103</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -16917,8 +17374,11 @@
       <c r="M169" t="s">
         <v>3104</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -16958,8 +17418,11 @@
       <c r="M170" t="s">
         <v>3105</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -16999,8 +17462,11 @@
       <c r="M171" t="s">
         <v>3106</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -17040,8 +17506,11 @@
       <c r="M172" t="s">
         <v>3107</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -17081,8 +17550,11 @@
       <c r="M173" t="s">
         <v>3108</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -17122,8 +17594,11 @@
       <c r="M174" t="s">
         <v>3109</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -17163,8 +17638,11 @@
       <c r="M175" t="s">
         <v>3110</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -17204,8 +17682,11 @@
       <c r="M176" t="s">
         <v>3111</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -17245,8 +17726,11 @@
       <c r="M177" t="s">
         <v>3112</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -17286,8 +17770,11 @@
       <c r="M178" t="s">
         <v>3113</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -17327,8 +17814,11 @@
       <c r="M179" t="s">
         <v>3114</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -17368,8 +17858,11 @@
       <c r="M180" t="s">
         <v>3115</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -17409,8 +17902,11 @@
       <c r="M181" t="s">
         <v>3116</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -17450,8 +17946,11 @@
       <c r="M182" t="s">
         <v>3117</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -17491,8 +17990,11 @@
       <c r="M183" t="s">
         <v>3118</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -17532,8 +18034,11 @@
       <c r="M184" t="s">
         <v>3119</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -17573,8 +18078,11 @@
       <c r="M185" t="s">
         <v>3120</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -17614,8 +18122,11 @@
       <c r="M186" t="s">
         <v>3121</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -17655,8 +18166,11 @@
       <c r="M187" t="s">
         <v>3122</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -17696,8 +18210,11 @@
       <c r="M188" t="s">
         <v>3123</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -17737,8 +18254,11 @@
       <c r="M189" t="s">
         <v>3124</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -17778,8 +18298,11 @@
       <c r="M190" t="s">
         <v>3125</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -17819,8 +18342,11 @@
       <c r="M191" t="s">
         <v>3126</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -17860,8 +18386,11 @@
       <c r="M192" t="s">
         <v>3127</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -17901,8 +18430,11 @@
       <c r="M193" t="s">
         <v>3128</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -17942,8 +18474,11 @@
       <c r="M194" t="s">
         <v>3129</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -17983,8 +18518,11 @@
       <c r="M195" t="s">
         <v>3130</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -18024,8 +18562,11 @@
       <c r="M196" t="s">
         <v>3131</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -18065,8 +18606,11 @@
       <c r="M197" t="s">
         <v>3132</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -18106,8 +18650,11 @@
       <c r="M198" t="s">
         <v>3133</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -18147,8 +18694,11 @@
       <c r="M199" t="s">
         <v>3134</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -18188,8 +18738,11 @@
       <c r="M200" t="s">
         <v>3135</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -18229,8 +18782,11 @@
       <c r="M201" t="s">
         <v>3136</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -18270,8 +18826,11 @@
       <c r="M202" t="s">
         <v>3137</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -18311,8 +18870,11 @@
       <c r="M203" t="s">
         <v>3138</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -18352,8 +18914,11 @@
       <c r="M204" t="s">
         <v>3139</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -18393,8 +18958,11 @@
       <c r="M205" t="s">
         <v>3140</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -18434,8 +19002,11 @@
       <c r="M206" t="s">
         <v>3141</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -18475,8 +19046,11 @@
       <c r="M207" t="s">
         <v>3142</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -18516,8 +19090,11 @@
       <c r="M208" t="s">
         <v>3143</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -18557,8 +19134,11 @@
       <c r="M209" t="s">
         <v>3144</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -18598,8 +19178,11 @@
       <c r="M210" t="s">
         <v>3145</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -18639,8 +19222,11 @@
       <c r="M211" t="s">
         <v>3146</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -18680,8 +19266,11 @@
       <c r="M212" t="s">
         <v>3147</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -18721,8 +19310,11 @@
       <c r="M213" t="s">
         <v>3148</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -18762,8 +19354,11 @@
       <c r="M214" t="s">
         <v>3149</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="N214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -18803,8 +19398,11 @@
       <c r="M215" t="s">
         <v>3150</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -18844,8 +19442,11 @@
       <c r="M216" t="s">
         <v>3151</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -18885,8 +19486,11 @@
       <c r="M217" t="s">
         <v>3152</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -18926,8 +19530,11 @@
       <c r="M218" t="s">
         <v>3153</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="N218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -18967,8 +19574,11 @@
       <c r="M219" t="s">
         <v>3154</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -19008,8 +19618,11 @@
       <c r="M220" t="s">
         <v>3155</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -19049,8 +19662,11 @@
       <c r="M221" t="s">
         <v>3156</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="N221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -19090,8 +19706,11 @@
       <c r="M222" t="s">
         <v>3157</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -19131,8 +19750,11 @@
       <c r="M223" t="s">
         <v>3158</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -19172,8 +19794,11 @@
       <c r="M224" t="s">
         <v>3159</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -19213,8 +19838,11 @@
       <c r="M225" t="s">
         <v>3160</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -19254,8 +19882,11 @@
       <c r="M226" t="s">
         <v>3161</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -19295,8 +19926,11 @@
       <c r="M227" t="s">
         <v>3162</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -19336,8 +19970,11 @@
       <c r="M228" t="s">
         <v>3163</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -19377,8 +20014,11 @@
       <c r="M229" t="s">
         <v>3164</v>
       </c>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -19418,8 +20058,11 @@
       <c r="M230" t="s">
         <v>3165</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -19459,8 +20102,11 @@
       <c r="M231" t="s">
         <v>3166</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -19500,8 +20146,11 @@
       <c r="M232" t="s">
         <v>3167</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -19541,8 +20190,11 @@
       <c r="M233" t="s">
         <v>3168</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="N233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -19582,8 +20234,11 @@
       <c r="M234" t="s">
         <v>3169</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -19623,8 +20278,11 @@
       <c r="M235" t="s">
         <v>3170</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -19664,8 +20322,11 @@
       <c r="M236" t="s">
         <v>3171</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -19705,8 +20366,11 @@
       <c r="M237" t="s">
         <v>3172</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -19746,8 +20410,11 @@
       <c r="M238" t="s">
         <v>3173</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -19787,8 +20454,11 @@
       <c r="M239" t="s">
         <v>3174</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="N239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -19828,8 +20498,11 @@
       <c r="M240" t="s">
         <v>3175</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="N240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -19869,8 +20542,11 @@
       <c r="M241" t="s">
         <v>3176</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -19910,8 +20586,11 @@
       <c r="M242" t="s">
         <v>3177</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -19951,8 +20630,11 @@
       <c r="M243" t="s">
         <v>3178</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -19992,8 +20674,11 @@
       <c r="M244" t="s">
         <v>3179</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -20033,8 +20718,11 @@
       <c r="M245" t="s">
         <v>3180</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -20074,8 +20762,11 @@
       <c r="M246" t="s">
         <v>3181</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="N246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -20114,6 +20805,9 @@
       </c>
       <c r="M247" t="s">
         <v>3182</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
